--- a/ABC PVT LTD.xlsx
+++ b/ABC PVT LTD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Dasboard" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -222,9 +222,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_ [$₹-439]* #,##0.00_ ;_ [$₹-439]* \-#,##0.00_ ;_ [$₹-439]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ [$₹-439]* #,##0.00_ ;_ [$₹-439]* \-#,##0.00_ ;_ [$₹-439]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -329,11 +329,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1">
@@ -362,7 +362,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="171" formatCode="_ [$₹-439]* #,##0.00_ ;_ [$₹-439]* \-#,##0.00_ ;_ [$₹-439]* &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="167" formatCode="_ [$₹-439]* #,##0.00_ ;_ [$₹-439]* \-#,##0.00_ ;_ [$₹-439]* &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <font>
@@ -380,52 +380,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="171" formatCode="_ [$₹-439]* #,##0.00_ ;_ [$₹-439]* \-#,##0.00_ ;_ [$₹-439]* &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="167" formatCode="_ [$₹-439]* #,##0.00_ ;_ [$₹-439]* \-#,##0.00_ ;_ [$₹-439]* &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_ [$₹-4009]\ * #,##0.0_ ;_ [$₹-4009]\ * \-#,##0.0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.0_-;\-&quot;$&quot;* #,##0.0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_ [$₹-4009]\ * #,##0.0_ ;_ [$₹-4009]\ * \-#,##0.0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -446,16 +404,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="_ [$₹-4009]\ * #,##0.0_ ;_ [$₹-4009]\ * \-#,##0.0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -467,10 +422,10 @@
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
+      <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -479,13 +434,58 @@
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="_ [$₹-4009]\ * #,##0.0_ ;_ [$₹-4009]\ * \-#,##0.0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ [$₹-4009]\ * #,##0.0_ ;_ [$₹-4009]\ * \-#,##0.0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ [$₹-4009]\ * #,##0.0_ ;_ [$₹-4009]\ * \-#,##0.0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0.0_-;\-&quot;$&quot;* #,##0.0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -520,7 +520,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample.Database.xlsx]Analysis Data!PivotTable2</c:name>
+    <c:name>[ABC PVT LTD.xlsx]Analysis Data!PivotTable2</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -2063,7 +2063,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample.Database.xlsx]Analysis Data!PivotTable6</c:name>
+    <c:name>[ABC PVT LTD.xlsx]Analysis Data!PivotTable6</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -4189,7 +4189,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4304,7 +4303,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample.Database.xlsx]Analysis Data!PivotTable3</c:name>
+    <c:name>[ABC PVT LTD.xlsx]Analysis Data!PivotTable3</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -4941,7 +4940,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample.Database.xlsx]Analysis Data!PivotTable4</c:name>
+    <c:name>[ABC PVT LTD.xlsx]Analysis Data!PivotTable4</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -5056,7 +5055,9 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent1">
+              <a:alpha val="56000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -5113,7 +5114,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5130,15 +5131,182 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="56000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>'Analysis Data'!$A$45:$A$55</c:f>
@@ -5460,7 +5628,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample.Database.xlsx]Analysis Data!PivotTable6</c:name>
+    <c:name>[ABC PVT LTD.xlsx]Analysis Data!PivotTable6</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -5682,6 +5850,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -5723,6 +5900,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -5764,6 +5950,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -5805,6 +6000,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -5846,6 +6050,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -5887,6 +6100,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -5928,6 +6150,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -5969,6 +6200,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -6010,6 +6250,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -6051,6 +6300,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -7768,7 +8026,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample.Database.xlsx]Analysis Data!PivotTable5</c:name>
+    <c:name>[ABC PVT LTD.xlsx]Analysis Data!PivotTable5</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -7976,6 +8234,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -9174,7 +9441,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample.Database.xlsx]Analysis Data!PivotTable3</c:name>
+    <c:name>[ABC PVT LTD.xlsx]Analysis Data!PivotTable3</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -9253,6 +9520,51 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -9615,7 +9927,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9729,7 +10040,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample.Database.xlsx]Analysis Data!PivotTable4</c:name>
+    <c:name>[ABC PVT LTD.xlsx]Analysis Data!PivotTable4</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -10228,7 +10539,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample.Database.xlsx]Analysis Data!PivotTable5</c:name>
+    <c:name>[ABC PVT LTD.xlsx]Analysis Data!PivotTable5</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -10343,7 +10654,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -10396,7 +10706,6 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -10438,6 +10747,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -10458,7 +10776,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -10510,7 +10827,6 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -10519,7 +10835,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -10530,7 +10846,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -10583,10 +10898,135 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -10631,6 +11071,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-67D4-4DF7-A129-7865B3471AAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -10646,6 +11091,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-67D4-4DF7-A129-7865B3471AAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -10681,6 +11131,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-67D4-4DF7-A129-7865B3471AAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -10696,6 +11151,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-67D4-4DF7-A129-7865B3471AAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -10711,6 +11171,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-67D4-4DF7-A129-7865B3471AAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -10728,6 +11193,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-67D4-4DF7-A129-7865B3471AAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -10745,6 +11215,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-67D4-4DF7-A129-7865B3471AAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -10762,6 +11237,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-67D4-4DF7-A129-7865B3471AAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -10779,11 +11259,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-67D4-4DF7-A129-7865B3471AAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -10793,9 +11277,7 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-0469-45D3-900A-18E68945AA4A}"/>
                 </c:ext>
@@ -10867,7 +11349,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -11040,7 +11521,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample.Database.xlsx]Analysis Data!PivotTable2</c:name>
+    <c:name>[ABC PVT LTD.xlsx]Analysis Data!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -11091,7 +11572,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11144,7 +11624,6 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -11211,7 +11690,6 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -11278,7 +11756,6 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -11306,7 +11783,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11359,7 +11835,6 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -11415,7 +11890,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11468,7 +11942,6 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -11477,7 +11950,178 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="25400">
             <a:solidFill>
@@ -11579,6 +12223,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-667C-49D7-B206-417BFA5BDA3C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -11726,6 +12375,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-667C-49D7-B206-417BFA5BDA3C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -11748,6 +12402,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-667C-49D7-B206-417BFA5BDA3C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -11770,6 +12429,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-667C-49D7-B206-417BFA5BDA3C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -11792,6 +12456,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-667C-49D7-B206-417BFA5BDA3C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -11861,7 +12530,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -11949,7 +12617,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -17616,8 +18283,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Store 1"/>
@@ -17634,7 +18301,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17688,8 +18355,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Date"/>
@@ -17701,12 +18368,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Date"/>
+              <tsle:timeslicer name="Date"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17759,8 +18426,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Salesperson 1"/>
@@ -17777,7 +18444,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -27861,7 +28528,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A79:L91" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -28384,62 +29051,62 @@
     <dataField name="Sum of Total Sales" fld="6" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="27">
+    <format dxfId="13">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="12">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -28447,7 +29114,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="22">
+  <chartFormats count="21">
     <chartFormat chart="4" format="20" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -28688,15 +29355,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="50" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
     <chartFormat chart="4" format="30" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -28717,7 +29375,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A59:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -29191,27 +29849,27 @@
     <dataField name="Count of Total Sales" fld="6" subtotal="count" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="2">
+    <format dxfId="18">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="17">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -29381,7 +30039,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A44:B55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -29869,10 +30527,10 @@
     <dataField name="Count of Total Sales" fld="6" subtotal="count" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="20">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="19">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
   </formats>
@@ -29906,7 +30564,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A22:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -30400,13 +31058,13 @@
     <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="32">
+    <format dxfId="25">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="24">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="12">
@@ -30426,7 +31084,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="12">
@@ -30446,7 +31104,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="12">
@@ -30497,7 +31155,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -30968,48 +31626,48 @@
     <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="9">
+    <format dxfId="33">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="32">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="30">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -31238,10 +31896,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1000" totalsRowShown="0" headerRowDxfId="17" headerRowCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1000" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="Currency">
   <autoFilter ref="A1:G1000"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="18"/>
+    <tableColumn id="1" name="Date" dataDxfId="2"/>
     <tableColumn id="2" name="Store"/>
     <tableColumn id="3" name="Salesperson"/>
     <tableColumn id="4" name="Product"/>
@@ -31573,7 +32231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:U3"/>
     </sheetView>
   </sheetViews>
